--- a/database/files/Input.xlsx
+++ b/database/files/Input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Members" sheetId="1" r:id="rId1"/>
@@ -25910,8 +25910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S356"/>
   <sheetViews>
-    <sheetView topLeftCell="A346" workbookViewId="0">
-      <selection activeCell="H359" sqref="H359"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44706,7 +44706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1417"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
